--- a/excel/実験1.xlsx
+++ b/excel/実験1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="25600" windowHeight="15560" tabRatio="838" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="25600" windowHeight="15560" tabRatio="838" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Scene1(履歴)" sheetId="9" r:id="rId1"/>
@@ -15,9 +15,8 @@
     <sheet name="Scene1(買い物)" sheetId="11" r:id="rId6"/>
     <sheet name="Scene1(正規化)" sheetId="8" r:id="rId7"/>
     <sheet name="Scene2(履歴)" sheetId="2" r:id="rId8"/>
-    <sheet name="Scene2(パラメータ)" sheetId="6" r:id="rId9"/>
+    <sheet name="Scene2比較" sheetId="6" r:id="rId9"/>
     <sheet name="Sheet3-1" sheetId="5" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Sheet3-1'!$A$1:$Q$42</definedName>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="126">
   <si>
     <t>食事する</t>
     <rPh sb="0" eb="2">
@@ -285,28 +284,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ranking</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>score(奥手法)</t>
-    <rPh sb="6" eb="7">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュホウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>neigh.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>score.(sup.加味)</t>
     <rPh sb="11" eb="13">
       <t>カミ</t>
@@ -461,6 +438,167 @@
   <si>
     <t>Pattern:['Shop', 'Eat', 'Play', 'Bar'] Score:1.24691358025</t>
   </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sup.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>['Eat'] Score:0</t>
+  </si>
+  <si>
+    <t>['Bar'] Score:0</t>
+  </si>
+  <si>
+    <t>['Eat', 'Bar'] Score:0.787037037037</t>
+  </si>
+  <si>
+    <t>['Tea'] Score:0</t>
+  </si>
+  <si>
+    <t>['Shop'] Score:0</t>
+  </si>
+  <si>
+    <t>['Play'] Score:0</t>
+  </si>
+  <si>
+    <t>['Eat', 'Tea'] Score:0.5</t>
+  </si>
+  <si>
+    <t>['Eat', 'Shop'] Score:0.416666666667</t>
+  </si>
+  <si>
+    <t>['Eat', 'Eat'] Score:0.138888888889</t>
+  </si>
+  <si>
+    <t>['Eat', 'Play'] Score:0.472222222222</t>
+  </si>
+  <si>
+    <t>['Tea', 'Shop'] Score:0.5</t>
+  </si>
+  <si>
+    <t>['Tea', 'Eat'] Score:0.166666666667</t>
+  </si>
+  <si>
+    <t>['Tea', 'Play'] Score:0.0277777777778</t>
+  </si>
+  <si>
+    <t>['Shop', 'Eat'] Score:1.0</t>
+  </si>
+  <si>
+    <t>['Shop', 'Play'] Score:0.25</t>
+  </si>
+  <si>
+    <t>['Eat', 'Tea', 'Shop'] Score:1.09259259259</t>
+  </si>
+  <si>
+    <t>['Eat', 'Tea', 'Eat'] Score:0.232510288066</t>
+  </si>
+  <si>
+    <t>['Eat', 'Tea', 'Play'] Score:0.0366941015089</t>
+  </si>
+  <si>
+    <t>['Eat', 'Shop', 'Eat'] Score:0.673868312757</t>
+  </si>
+  <si>
+    <t>['Eat', 'Shop', 'Play'] Score:0.122085048011</t>
+  </si>
+  <si>
+    <t>['Eat', 'Eat', 'Play'] Score:0.113854595336</t>
+  </si>
+  <si>
+    <t>['Tea', 'Shop', 'Eat'] Score:1.05555555556</t>
+  </si>
+  <si>
+    <t>['Tea', 'Shop', 'Play'] Score:0.114197530864</t>
+  </si>
+  <si>
+    <t>['Tea', 'Eat', 'Play'] Score:0.0833333333333</t>
+  </si>
+  <si>
+    <t>['Shop', 'Eat', 'Play'] Score:1.30555555556</t>
+  </si>
+  <si>
+    <t>['Eat', 'Tea', 'Shop', 'Eat'] Score:2.37540009145</t>
+  </si>
+  <si>
+    <t>['Eat', 'Tea', 'Shop', 'Play'] Score:0.231024234111</t>
+  </si>
+  <si>
+    <t>['Eat', 'Tea', 'Eat', 'Play'] Score:0.0769318701417</t>
+  </si>
+  <si>
+    <t>['Eat', 'Shop', 'Eat', 'Play'] Score:0.932174973327</t>
+  </si>
+  <si>
+    <t>['Tea', 'Shop', 'Eat', 'Play'] Score:1.02880658436</t>
+  </si>
+  <si>
+    <t>['Eat', 'Tea', 'Shop', 'Eat', 'Play'] Score:2.47452116039</t>
+  </si>
+  <si>
+    <t>['Tea', 'Bar'] Score:0.0277777777778</t>
+  </si>
+  <si>
+    <t>['Shop', 'Bar'] Score:0.111111111111</t>
+  </si>
+  <si>
+    <t>['Eat', 'Tea', 'Bar'] Score:0.0366941015089</t>
+  </si>
+  <si>
+    <t>['Eat', 'Shop', 'Bar'] Score:0.0548696844993</t>
+  </si>
+  <si>
+    <t>['Eat', 'Eat', 'Bar'] Score:0.056927297668</t>
+  </si>
+  <si>
+    <t>['Tea', 'Shop', 'Bar'] Score:0.104938271605</t>
+  </si>
+  <si>
+    <t>['Tea', 'Eat', 'Bar'] Score:0.0833333333333</t>
+  </si>
+  <si>
+    <t>['Shop', 'Eat', 'Bar'] Score:0.567901234568</t>
+  </si>
+  <si>
+    <t>['Eat', 'Tea', 'Shop', 'Bar'] Score:0.224203627496</t>
+  </si>
+  <si>
+    <t>['Eat', 'Tea', 'Eat', 'Bar'] Score:0.0737692424935</t>
+  </si>
+  <si>
+    <t>['Eat', 'Shop', 'Eat', 'Bar'] Score:0.351470812376</t>
+  </si>
+  <si>
+    <t>['Tea', 'Shop', 'Eat', 'Bar'] Score:0.874485596708</t>
+  </si>
+  <si>
+    <t>['Eat', 'Tea', 'Shop', 'Eat', 'Bar'] Score:2.22008840116</t>
+  </si>
+  <si>
+    <t>['Play', 'Bar'] Score:0.5</t>
+  </si>
+  <si>
+    <t>['Eat', 'Play', 'Bar'] Score:0.25548696845</t>
+  </si>
+  <si>
+    <t>['Shop', 'Play', 'Bar'] Score:0.117283950617</t>
+  </si>
+  <si>
+    <t>['Eat', 'Shop', 'Play', 'Bar'] Score:0.090877914952</t>
+  </si>
+  <si>
+    <t>['Eat', 'Eat', 'Play', 'Bar'] Score:0.135688157293</t>
+  </si>
+  <si>
+    <t>['Shop', 'Eat', 'Play', 'Bar'] Score:0.824417009602</t>
+  </si>
+  <si>
+    <t>['Eat', 'Shop', 'Eat', 'Play', 'Bar'] Score:1.42460498908</t>
+  </si>
 </sst>
 </file>
 
@@ -470,7 +608,7 @@
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -541,13 +679,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -605,7 +736,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="677">
+  <cellStyleXfs count="687">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1283,8 +1414,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
@@ -1303,12 +1444,9 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="7" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="8" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="9" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1317,8 +1455,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="677">
+  <cellStyles count="687">
     <cellStyle name="20% - アクセント1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - アクセント2" xfId="4" builtinId="34"/>
     <cellStyle name="20% - アクセント3" xfId="6" builtinId="38"/>
@@ -1660,6 +1801,11 @@
     <cellStyle name="ハイパーリンク" xfId="671" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="673" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="685" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
@@ -1996,6 +2142,11 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="672" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="674" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="686" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2475,7 +2626,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2489,14 +2640,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" t="s">
         <v>13</v>
       </c>
@@ -2758,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="1"/>
+        <f>(I7+0.5*J7+0.25*K7+0.125*L7+0.0625*M7)/H7</f>
         <v>0.60416666666666663</v>
       </c>
       <c r="O7" s="4">
@@ -3686,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H32" si="4">SUM(I30:M30)</f>
+        <f>SUM(I30:M30)</f>
         <v>1</v>
       </c>
       <c r="I30">
@@ -3723,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
+        <f>SUM(I31:M31)</f>
         <v>2</v>
       </c>
       <c r="I31">
@@ -3760,7 +3911,7 @@
         <v>2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="4"/>
+        <f>SUM(I32:M32)</f>
         <v>1</v>
       </c>
       <c r="I32">
@@ -4253,30 +4404,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4305,14 +4438,14 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -4324,10 +4457,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>28</v>
@@ -4373,7 +4506,7 @@
       </c>
       <c r="M4" s="4"/>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4410,7 +4543,7 @@
       </c>
       <c r="M5" s="4"/>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4447,7 +4580,7 @@
       </c>
       <c r="M6" s="4"/>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4484,7 +4617,7 @@
       </c>
       <c r="M7" s="4"/>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4521,7 +4654,7 @@
       </c>
       <c r="M8" s="4"/>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4548,11 +4681,11 @@
         <v>0</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="1"/>
+        <f>F9/8</f>
         <v>0.625</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="2"/>
+        <f>(G9+$C$1*H9+($C$1^2)*I9)/F9</f>
         <v>0.86666666666666659</v>
       </c>
       <c r="L9" s="4">
@@ -4560,7 +4693,7 @@
         <v>1.7333333333333332</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" ref="M9:M35" si="3">L9*J9</f>
+        <f t="shared" ref="M9:M30" si="3">L9*J9</f>
         <v>1.0833333333333333</v>
       </c>
       <c r="N9">
@@ -4568,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -4615,7 +4748,7 @@
         <v>7</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4662,7 +4795,7 @@
         <v>13</v>
       </c>
       <c r="O11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4709,7 +4842,7 @@
         <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4735,7 +4868,7 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -4756,7 +4889,7 @@
         <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4782,7 +4915,7 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -4803,7 +4936,7 @@
         <v>21</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -4850,7 +4983,7 @@
         <v>7</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -4897,7 +5030,7 @@
         <v>18</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -4944,7 +5077,7 @@
         <v>13</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -4991,7 +5124,7 @@
         <v>11</v>
       </c>
       <c r="O18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -5020,7 +5153,7 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -5041,7 +5174,7 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -5070,7 +5203,7 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -5091,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -5141,7 +5274,7 @@
         <v>4</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -5170,7 +5303,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -5191,7 +5324,7 @@
         <v>16</v>
       </c>
       <c r="O22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -5220,7 +5353,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -5241,7 +5374,7 @@
         <v>16</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -5270,7 +5403,7 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -5291,7 +5424,7 @@
         <v>20</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -5341,7 +5474,7 @@
         <v>9</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -5391,7 +5524,7 @@
         <v>4</v>
       </c>
       <c r="O26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -5420,7 +5553,7 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -5441,7 +5574,7 @@
         <v>15</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -5473,7 +5606,7 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -5494,7 +5627,7 @@
         <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -5526,7 +5659,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -5547,7 +5680,7 @@
         <v>6</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -5579,7 +5712,7 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -5600,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5658,14 +5791,14 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -5677,13 +5810,13 @@
         <v>7</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>32</v>
@@ -5695,19 +5828,19 @@
         <v>30</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>33</v>
@@ -5917,11 +6050,11 @@
       </c>
       <c r="M8" s="4"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <f>O10+O17+O26</f>
         <v>1.7619047619047619</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="18">
         <f>O10+O13+O17+O22+O23+O26+O28</f>
         <v>3.7619047619047619</v>
       </c>
@@ -5962,11 +6095,11 @@
         <v>1.7333333333333332</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" ref="M4:M30" si="3">L9*J9</f>
+        <f t="shared" ref="M9:M30" si="3">L9*J9</f>
         <v>1.0833333333333333</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N4:N30" si="4">RANK(M9,$M$9:$M$30)</f>
+        <f t="shared" ref="N9:N30" si="4">RANK(M9,$M$9:$M$30)</f>
         <v>3</v>
       </c>
       <c r="O9" s="5">
@@ -5975,7 +6108,7 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <f>P4+P6</f>
         <v>5.5476190476190474</v>
       </c>
@@ -5983,7 +6116,7 @@
         <f t="shared" ref="S9:S30" si="5">RANK(R9,$R$9:$R$30)</f>
         <v>7</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="19">
         <f>Q4+Q6</f>
         <v>8.8809523809523814</v>
       </c>
@@ -6213,7 +6346,7 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -6233,7 +6366,7 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="25">
         <f>J13/$J$5</f>
         <v>0.5</v>
       </c>
@@ -6279,7 +6412,7 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -6299,7 +6432,7 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="25">
         <f>J14/$J$5</f>
         <v>0.5</v>
       </c>
@@ -6569,7 +6702,7 @@
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="20">
+      <c r="R18" s="19">
         <f>P8+P6</f>
         <v>4.3095238095238093</v>
       </c>
@@ -6577,7 +6710,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="19">
         <f>Q8+Q6</f>
         <v>9.6428571428571423</v>
       </c>
@@ -6612,7 +6745,7 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -6632,7 +6765,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="25">
         <f>J19/$J$10</f>
         <v>0.33333333333333331</v>
       </c>
@@ -6681,7 +6814,7 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -6701,7 +6834,7 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="25">
         <f>J20/$J$12</f>
         <v>0.5</v>
       </c>
@@ -6819,7 +6952,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -6839,7 +6972,7 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="O22" s="28">
+      <c r="O22" s="25">
         <f>J22/$J$12</f>
         <v>0.5</v>
       </c>
@@ -6888,7 +7021,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -6908,7 +7041,7 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="25">
         <f>J23/$J$11</f>
         <v>0.5</v>
       </c>
@@ -6957,7 +7090,7 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -6977,13 +7110,13 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="O24" s="28">
+      <c r="O24" s="25">
         <f>J24/$J$11</f>
         <v>0.5</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="20">
+      <c r="R24" s="19">
         <f>P5+P4+P6</f>
         <v>5.5476190476190474</v>
       </c>
@@ -6991,7 +7124,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="T24" s="20">
+      <c r="T24" s="19">
         <f>Q5+Q4+Q6</f>
         <v>8.8809523809523814</v>
       </c>
@@ -7060,7 +7193,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="T25" s="20">
+      <c r="T25" s="19">
         <f>Q7+Q4+Q6</f>
         <v>9.8809523809523814</v>
       </c>
@@ -7164,7 +7297,7 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -7184,13 +7317,13 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="O27" s="28">
+      <c r="O27" s="25">
         <f>J27/$J$17</f>
         <v>0.5</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="20">
+      <c r="R27" s="19">
         <f>P7+P8+P6</f>
         <v>5.3095238095238093</v>
       </c>
@@ -7236,7 +7369,7 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -7256,7 +7389,7 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O28" s="28">
+      <c r="O28" s="25">
         <f>J28/$J$21</f>
         <v>0.5</v>
       </c>
@@ -7308,7 +7441,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -7328,7 +7461,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O29" s="28">
+      <c r="O29" s="25">
         <f>J29/$J$21</f>
         <v>0.5</v>
       </c>
@@ -7342,7 +7475,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="T29" s="20">
+      <c r="T29" s="19">
         <f>Q5+Q7+Q4+Q6</f>
         <v>9.8809523809523814</v>
       </c>
@@ -7380,7 +7513,7 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -7400,7 +7533,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O30" s="28">
+      <c r="O30" s="25">
         <f>J30/$J$26</f>
         <v>0.5</v>
       </c>
@@ -7475,12 +7608,12 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" t="s">
         <v>13</v>
       </c>
@@ -7494,7 +7627,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>28</v>
@@ -7512,7 +7645,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>14</v>
@@ -7709,7 +7842,7 @@
       </c>
       <c r="M8" s="4"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <f>O10+O17+O26</f>
         <v>1.7619047619047619</v>
       </c>
@@ -7762,7 +7895,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <f>P4+P6</f>
         <v>3.0476190476190474</v>
       </c>
@@ -7965,7 +8098,7 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -8022,7 +8155,7 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -8275,7 +8408,7 @@
         <v>0.5</v>
       </c>
       <c r="P18" s="7"/>
-      <c r="Q18" s="20">
+      <c r="Q18" s="19">
         <f>P8+P6</f>
         <v>3.8095238095238093</v>
       </c>
@@ -8310,7 +8443,7 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -8370,7 +8503,7 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -8490,7 +8623,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -8550,7 +8683,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -8610,7 +8743,7 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -8635,7 +8768,7 @@
         <v>0.5</v>
       </c>
       <c r="P24" s="7"/>
-      <c r="Q24" s="20">
+      <c r="Q24" s="19">
         <f>P5+P4+P6</f>
         <v>3.0476190476190474</v>
       </c>
@@ -8695,7 +8828,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P25" s="7"/>
-      <c r="Q25" s="20">
+      <c r="Q25" s="19">
         <f>P7+P4+P6</f>
         <v>3.0476190476190474</v>
       </c>
@@ -8790,7 +8923,7 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -8853,7 +8986,7 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -8916,7 +9049,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -8941,7 +9074,7 @@
         <v>0.5</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="20">
+      <c r="Q29" s="19">
         <f>P5+P7+P4+P6</f>
         <v>3.0476190476190474</v>
       </c>
@@ -8979,7 +9112,7 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -9068,12 +9201,12 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" t="s">
         <v>13</v>
       </c>
@@ -9087,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>28</v>
@@ -9105,19 +9238,19 @@
         <v>30</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>33</v>
@@ -9157,7 +9290,7 @@
       </c>
       <c r="M4" s="4"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="25">
+      <c r="P4" s="22">
         <v>0</v>
       </c>
       <c r="Q4" s="7">
@@ -9323,11 +9456,11 @@
       </c>
       <c r="M8" s="4"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <f>O10+O26</f>
         <v>1.0952380952380951</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="18">
         <f>O10+O23+O26+O28</f>
         <v>2.0952380952380953</v>
       </c>
@@ -9381,7 +9514,7 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <f>P4+P6</f>
         <v>1.3809523809523809</v>
       </c>
@@ -9389,7 +9522,7 @@
         <f t="shared" ref="S9:S30" si="5">RANK(R9,$R$9:$R$30)</f>
         <v>5</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="19">
         <f>Q4+Q6</f>
         <v>3.2142857142857144</v>
       </c>
@@ -9507,7 +9640,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="21">
         <f>J11/$J$5</f>
         <v>1</v>
       </c>
@@ -9573,7 +9706,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="21">
         <f>J12/$J$5</f>
         <v>1</v>
       </c>
@@ -9619,7 +9752,7 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -9639,7 +9772,7 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="23">
         <f>J13/$J$5</f>
         <v>0.5</v>
       </c>
@@ -9685,7 +9818,7 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -9705,7 +9838,7 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="23">
         <f>J14/$J$5</f>
         <v>0.5</v>
       </c>
@@ -9771,7 +9904,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="21">
         <f>J15/$J$7</f>
         <v>1</v>
       </c>
@@ -9837,7 +9970,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="21">
         <f>J16/$J$7</f>
         <v>0.66666666666666663</v>
       </c>
@@ -9903,7 +10036,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="21">
         <f>J17/$J$7</f>
         <v>0.66666666666666663</v>
       </c>
@@ -9969,7 +10102,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="21">
         <f>J18/$J$8</f>
         <v>0.5</v>
       </c>
@@ -10018,7 +10151,7 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -10038,7 +10171,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="24">
         <f>J19/$J$10</f>
         <v>0.33333333333333331</v>
       </c>
@@ -10087,7 +10220,7 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -10107,7 +10240,7 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="23">
         <f>J20/$J$12</f>
         <v>0.5</v>
       </c>
@@ -10176,7 +10309,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="21">
         <f>J21/$J$12</f>
         <v>1</v>
       </c>
@@ -10225,7 +10358,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -10245,7 +10378,7 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="O22" s="26">
+      <c r="O22" s="23">
         <f>J22/$J$12</f>
         <v>0.5</v>
       </c>
@@ -10294,7 +10427,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -10314,7 +10447,7 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O23" s="24">
         <f>J23/$J$11</f>
         <v>0.5</v>
       </c>
@@ -10363,7 +10496,7 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -10383,13 +10516,13 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="O24" s="27">
+      <c r="O24" s="24">
         <f>J24/$J$11</f>
         <v>0.5</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="20">
+      <c r="R24" s="19">
         <f>P5+P4+P6</f>
         <v>1.3809523809523809</v>
       </c>
@@ -10397,7 +10530,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="T24" s="20">
+      <c r="T24" s="19">
         <f>Q5+Q4+Q6</f>
         <v>3.2142857142857144</v>
       </c>
@@ -10458,7 +10591,7 @@
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="20">
+      <c r="R25" s="19">
         <f>P7+P4+P6</f>
         <v>1.3809523809523809</v>
       </c>
@@ -10466,7 +10599,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="T25" s="20">
+      <c r="T25" s="19">
         <f>Q7+Q4+Q6</f>
         <v>3.2142857142857144</v>
       </c>
@@ -10570,7 +10703,7 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -10590,7 +10723,7 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="23">
         <f>J27/$J$17</f>
         <v>0.5</v>
       </c>
@@ -10642,7 +10775,7 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -10662,7 +10795,7 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O28" s="27">
+      <c r="O28" s="24">
         <f>J28/$J$21</f>
         <v>0.5</v>
       </c>
@@ -10714,7 +10847,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -10734,13 +10867,13 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O29" s="27">
+      <c r="O29" s="24">
         <f>J29/$J$21</f>
         <v>0.5</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="20">
+      <c r="R29" s="19">
         <f>P5+P7+P4+P6</f>
         <v>1.3809523809523809</v>
       </c>
@@ -10748,7 +10881,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="T29" s="20">
+      <c r="T29" s="19">
         <f>Q5+Q7+Q4+Q6</f>
         <v>3.2142857142857144</v>
       </c>
@@ -10786,7 +10919,7 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -10806,7 +10939,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O30" s="27">
+      <c r="O30" s="24">
         <f>J30/$J$26</f>
         <v>0.5</v>
       </c>
@@ -10881,12 +11014,12 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" t="s">
         <v>13</v>
       </c>
@@ -10900,7 +11033,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>28</v>
@@ -10918,10 +11051,10 @@
         <v>30</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>33</v>
@@ -11115,7 +11248,7 @@
       </c>
       <c r="M8" s="4"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <f>O10+O17+O26</f>
         <v>1.7619047619047619</v>
       </c>
@@ -11168,7 +11301,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <f>P4+P6</f>
         <v>3.0476190476190474</v>
       </c>
@@ -11371,7 +11504,7 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -11428,7 +11561,7 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -11681,7 +11814,7 @@
         <v>0.5</v>
       </c>
       <c r="P18" s="7"/>
-      <c r="Q18" s="20">
+      <c r="Q18" s="19">
         <f>P8+P6</f>
         <v>3.8095238095238093</v>
       </c>
@@ -11716,7 +11849,7 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -11776,7 +11909,7 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -11896,7 +12029,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -11956,7 +12089,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -12016,7 +12149,7 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -12041,7 +12174,7 @@
         <v>0.5</v>
       </c>
       <c r="P24" s="7"/>
-      <c r="Q24" s="20">
+      <c r="Q24" s="19">
         <f>P5+P4+P6</f>
         <v>3.0476190476190474</v>
       </c>
@@ -12101,7 +12234,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P25" s="7"/>
-      <c r="Q25" s="20">
+      <c r="Q25" s="19">
         <f>P7+P4+P6</f>
         <v>3.0476190476190474</v>
       </c>
@@ -12196,7 +12329,7 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -12259,7 +12392,7 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -12322,7 +12455,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -12347,7 +12480,7 @@
         <v>0.5</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="20">
+      <c r="Q29" s="19">
         <f>P5+P7+P4+P6</f>
         <v>3.0476190476190474</v>
       </c>
@@ -12385,7 +12518,7 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -12482,12 +12615,12 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" t="s">
         <v>13</v>
       </c>
@@ -12501,7 +12634,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>28</v>
@@ -12973,7 +13106,7 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -13030,7 +13163,7 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -13318,7 +13451,7 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -13343,7 +13476,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="P19" s="7"/>
-      <c r="Q19" s="20">
+      <c r="Q19" s="19">
         <f>P4+P8+P6</f>
         <v>12.642857142857142</v>
       </c>
@@ -13378,7 +13511,7 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -13498,7 +13631,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -13558,7 +13691,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -13618,7 +13751,7 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -13798,7 +13931,7 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -13861,7 +13994,7 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -13924,7 +14057,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -13987,7 +14120,7 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -14044,7 +14177,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -14213,30 +14346,32 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B36" sqref="B32:D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:18">
       <c r="B1" t="s">
         <v>27</v>
       </c>
@@ -14245,106 +14380,98 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H35" si="0">SUM(I4:L4)</f>
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G35" si="0">SUM(H4:K4)</f>
+      <c r="I4">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="9">
-        <f t="shared" ref="L4:L35" si="1">G4/8</f>
-        <v>1.25</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4:M35" si="2">(H4+$C$1*I4+($C$1^2)*J4+($C$1^3)*K4)/G4</f>
-        <v>1</v>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <f>G4/8</f>
+        <v>0.875</v>
       </c>
       <c r="N4" s="4">
-        <f>M4</f>
-        <v>1</v>
-      </c>
-      <c r="O4" s="15">
-        <f t="shared" ref="O4:O35" si="3">N4*L4</f>
-        <v>1.25</v>
-      </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7">
-        <f>Q11+Q15+Q21</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <f t="shared" ref="N4:N35" si="1">(I4+$C$1*J4+($C$1^2)*K4+($C$1^3)*L4)/H4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <f>N4</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="15">
+        <f t="shared" ref="P4:P35" si="2">O4*M4</f>
+        <v>0.875</v>
+      </c>
+      <c r="R4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>2</v>
       </c>
@@ -14352,14 +14479,14 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -14367,29 +14494,30 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="9">
-        <f t="shared" si="1"/>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" ref="M5:M54" si="3">G5/8</f>
         <v>0.25</v>
       </c>
-      <c r="M5" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="N5" s="4">
-        <f>M5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="3"/>
+        <f>N5</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>3</v>
       </c>
@@ -14397,14 +14525,14 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -14412,29 +14540,30 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" s="9">
-        <f t="shared" si="1"/>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="M6" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="N6" s="4">
-        <f>M6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="3"/>
+        <f>N6</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="12">
-        <f>Q9+Q14+Q19+Q20+Q26+Q28+Q30</f>
-        <v>4.2523809523809524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="R6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>4</v>
       </c>
@@ -14442,14 +14571,14 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -14457,29 +14586,30 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" s="9">
-        <f t="shared" si="1"/>
-        <v>0.375</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="N7" s="4">
-        <f>M7</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="7">
-        <f>Q12</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <f>N7</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>5</v>
       </c>
@@ -14487,14 +14617,14 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -14502,29 +14632,30 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="9">
-        <f t="shared" si="1"/>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="M8" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="N8" s="4">
-        <f>M8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="3"/>
+        <f>N8</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="19">
-        <f>Q10+Q13+Q22+Q23+Q27+Q29</f>
-        <v>4.2333333333333334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="R8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>6</v>
       </c>
@@ -14535,52 +14666,49 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <f>G9/8</f>
         <v>0.375</v>
       </c>
-      <c r="M9" s="4">
-        <f t="shared" si="2"/>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
         <v>0.1851851851851852</v>
       </c>
-      <c r="N9" s="4">
-        <f>M9*(N4+N4)</f>
+      <c r="O9" s="4">
+        <f>N9*(O4+O4)</f>
         <v>0.37037037037037041</v>
       </c>
-      <c r="O9" s="4">
-        <f t="shared" si="3"/>
+      <c r="P9" s="4">
+        <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="P9">
-        <f t="shared" ref="P9:P51" si="4">RANK(O9,$O$9:$O$54)</f>
-        <v>36</v>
-      </c>
-      <c r="Q9" s="5">
-        <f>L9/$L$4</f>
-        <v>0.3</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="20">
-        <f>R4+R4</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="Q9">
+        <f t="shared" ref="Q9:Q51" si="4">RANK(P9,$P$9:$P$54)</f>
+        <v>28</v>
+      </c>
+      <c r="R9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>7</v>
       </c>
@@ -14591,2427 +14719,2348 @@
         <v>2</v>
       </c>
       <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
       <c r="I10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10" s="9">
-        <f t="shared" si="1"/>
-        <v>0.875</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="9">
+        <f>G10/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="N10" s="4">
+        <f>(I10+$C$1*J10+($C$1^2)*K10+($C$1^3)*L10)/H10</f>
         <v>0.62962962962962965</v>
       </c>
-      <c r="N10" s="4">
-        <f>M10*(N4+N6)</f>
+      <c r="O10" s="4">
+        <f>N10*(O4+O6)</f>
         <v>1.2592592592592593</v>
       </c>
-      <c r="O10" s="15">
-        <f t="shared" si="3"/>
-        <v>1.1018518518518519</v>
-      </c>
-      <c r="P10">
+      <c r="P10" s="15">
+        <f t="shared" si="2"/>
+        <v>0.78703703703703709</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="R10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="O11" s="4">
+        <f>N11*(O5+O7)</f>
+        <v>1.2592592592592593</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="R11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="O12" s="4">
+        <f>N12*(O6+O8)</f>
+        <v>1.1111111111111109</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="R12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="11">
+        <f>N13*(O4+O5)</f>
+        <v>2</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="R13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O14" s="4">
+        <f>N14*(O5+O4)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="11">
+        <f>N15*(O5+O7)</f>
+        <v>2</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="R15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O16" s="4">
+        <f>N16*(O5+O8)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="R16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O17" s="4">
+        <f>N17*(O5+O6)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="R17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="11">
+        <f>N18*(O7+O4)</f>
+        <v>2</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="R18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O19" s="4">
+        <f>N19*(O7+O6)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="R19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O20" s="11">
+        <f>N20*(O7+O8)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="R20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="11">
+        <f>N21*(O7+O6)</f>
+        <v>2</v>
+      </c>
+      <c r="P21" s="15">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="R21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="4">
+        <f>N22*((O13+O15)+$C$1*(O12))</f>
+        <v>4.3703703703703702</v>
+      </c>
+      <c r="P22" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0925925925925926</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="R22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O23" s="4">
+        <f>N23*((O13+O14)+$C$1*(O9))</f>
+        <v>0.93004115226337447</v>
+      </c>
+      <c r="P23" s="15">
+        <f t="shared" si="2"/>
+        <v>0.23251028806584362</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="R23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O24" s="4">
+        <f>N24*((O13+O16)+$C$1*(O11))</f>
+        <v>0.2935528120713306</v>
+      </c>
+      <c r="P24" s="15">
+        <f t="shared" si="2"/>
+        <v>3.6694101508916326E-2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="R24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O25" s="4">
+        <f>N25*((O13+O17)+$C$1*(O10))</f>
+        <v>0.2935528120713306</v>
+      </c>
+      <c r="P25" s="15">
+        <f t="shared" si="2"/>
+        <v>3.6694101508916326E-2</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="R25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="O26" s="4">
+        <f>N26*((O12+O18)+$C$1*(O9))</f>
+        <v>1.7969821673525372</v>
+      </c>
+      <c r="P26" s="15">
+        <f t="shared" si="2"/>
+        <v>0.67386831275720149</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="R26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O27" s="4">
+        <f>N27*((O12+O20)+$C$1*(O11))</f>
+        <v>0.48834019204389573</v>
+      </c>
+      <c r="P27" s="15">
+        <f t="shared" si="2"/>
+        <v>0.12208504801097393</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="R27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O28" s="4">
+        <f>N28*((O12+O19)+$C$1*(O10))</f>
+        <v>0.21947873799725648</v>
+      </c>
+      <c r="P28" s="15">
+        <f t="shared" si="2"/>
+        <v>5.486968449931412E-2</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="R28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O29" s="4">
+        <f>N29*((O9+O11)+$C$1*(O11))</f>
+        <v>0.45541838134430729</v>
+      </c>
+      <c r="P29" s="15">
+        <f t="shared" si="2"/>
+        <v>0.11385459533607682</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="R29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O30" s="4">
+        <f>N30*((O9+O10)+$C$1*(O10))</f>
+        <v>0.22770919067215364</v>
+      </c>
+      <c r="P30" s="15">
+        <f t="shared" si="2"/>
+        <v>5.6927297668038411E-2</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="R30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="O31" s="4">
+        <f>N31*((O11+O21)+$C$1*(O10))</f>
+        <v>2.0438957475994517</v>
+      </c>
+      <c r="P31" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25548696844993146</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="R31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="4">
+        <f>N32*((O15+O18)+$C$1*(O14))</f>
+        <v>4.2222222222222223</v>
+      </c>
+      <c r="P32" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="Q10" s="5">
-        <f>L10/$L$4</f>
-        <v>0.7</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="16">
-        <f>R4+R6</f>
-        <v>6.2523809523809524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
+      <c r="R32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O33" s="4">
+        <f>N33*((O15+O20)+$C$1*(O16))</f>
+        <v>0.91358024691358009</v>
+      </c>
+      <c r="P33" s="15">
+        <f t="shared" si="2"/>
+        <v>0.11419753086419751</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="R33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O34" s="4">
+        <f>N34*((O15+O19)+$C$1*(O17))</f>
+        <v>0.83950617283950613</v>
+      </c>
+      <c r="P34" s="15">
+        <f t="shared" si="2"/>
+        <v>0.10493827160493827</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="R34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O35" s="4">
+        <f>N35*((O14+O11)+$C$1*(O16))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P35" s="15">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="R35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H54" si="5">SUM(I36:L36)</f>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" ref="N36:N54" si="6">(I36+$C$1*J36+($C$1^2)*K36+($C$1^3)*L36)/H36</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O36" s="4">
+        <f>N36*((O14+O10)+$C$1*(O17))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P36" s="15">
+        <f t="shared" ref="P36:P54" si="7">O36*M36</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="R36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O37" s="4">
+        <f>N37*((O18+O11)+$C$1*(O20))</f>
+        <v>3.4814814814814818</v>
+      </c>
+      <c r="P37" s="15">
+        <f t="shared" si="7"/>
+        <v>1.3055555555555558</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="R37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O38" s="4">
+        <f>N38*((O18+O10)+$C$1*(O19))</f>
+        <v>2.2716049382716048</v>
+      </c>
+      <c r="P38" s="15">
+        <f t="shared" si="7"/>
+        <v>0.5679012345679012</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="R38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O39" s="4">
+        <f>N39*((O20+O21)+$C$1*(O19))</f>
+        <v>0.93827160493827155</v>
+      </c>
+      <c r="P39" s="15">
+        <f t="shared" si="7"/>
+        <v>0.11728395061728394</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="R39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="4">
+        <f>N40*((O22+O32)+$C$1*(O26+O23))</f>
+        <v>9.5016003657978949</v>
+      </c>
+      <c r="P40" s="15">
+        <f t="shared" si="7"/>
+        <v>2.3754000914494737</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O41" s="4">
+        <f>N41*((O22+O33)+$C$1*(O27+O24))</f>
+        <v>1.8481938728852305</v>
+      </c>
+      <c r="P41" s="15">
+        <f t="shared" si="7"/>
+        <v>0.23102423411065381</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="R41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O42" s="4">
+        <f>N42*((O22+O34)+$C$1*(O28+O25))</f>
+        <v>1.7936290199664686</v>
+      </c>
+      <c r="P42" s="15">
+        <f t="shared" si="7"/>
+        <v>0.22420362749580858</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="R42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O43" s="4">
+        <f>N43*((O23+O35)+$C$1*(O29+O24))</f>
+        <v>0.61545496113397347</v>
+      </c>
+      <c r="P43" s="15">
+        <f t="shared" si="7"/>
+        <v>7.6931870141746683E-2</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="R43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O44" s="4">
+        <f>N44*((O23+O36)+$C$1*(O25+O30))</f>
+        <v>0.59015393994817855</v>
+      </c>
+      <c r="P44" s="15">
+        <f t="shared" si="7"/>
+        <v>7.3769242493522319E-2</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="R44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" s="20">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N45" s="4">
+        <f>(I45+$C$1*J45+($C$1^2)*K45+($C$1^3)*L45)/H45</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O45" s="4">
+        <f>N45*((O26+O37)+$C$1*(O29+O27))</f>
+        <v>3.7286998933089466</v>
+      </c>
+      <c r="P45" s="15">
+        <f t="shared" si="7"/>
+        <v>0.93217497332723664</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="R45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="20">
+        <f>G46/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O46" s="4">
+        <f>N46*((O26+O38)+$C$1*(O28+O30))</f>
+        <v>1.4058832495046485</v>
+      </c>
+      <c r="P46" s="15">
+        <f t="shared" si="7"/>
+        <v>0.35147081237616212</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="R46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O47" s="4">
+        <f>N47*((O27+O39)+$C$1*(O28+O31))</f>
+        <v>0.72702331961591216</v>
+      </c>
+      <c r="P47" s="15">
+        <f t="shared" si="7"/>
+        <v>9.0877914951989019E-2</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="R47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O48" s="4">
+        <f>N48*((O29+O31)+$C$1*(O31+O30))</f>
+        <v>1.0855052583447646</v>
+      </c>
+      <c r="P48" s="15">
+        <f t="shared" si="7"/>
+        <v>0.13568815729309558</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="R48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N49" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O49" s="4">
+        <f>N49*((O32+O37)+$C$1*(O33+O35))</f>
+        <v>8.2304526748971192</v>
+      </c>
+      <c r="P49" s="15">
+        <f t="shared" si="7"/>
+        <v>1.0288065843621399</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="9">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.62962962962962965</v>
-      </c>
-      <c r="N11" s="4">
-        <f>M11*(N5+N7)</f>
-        <v>1.2592592592592593</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="3"/>
-        <v>0.78703703703703709</v>
-      </c>
-      <c r="P11">
+      <c r="R49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O50" s="4">
+        <f>N50*((O32+O38)+$C$1*(O34+O36))</f>
+        <v>6.995884773662552</v>
+      </c>
+      <c r="P50" s="15">
+        <f t="shared" si="7"/>
+        <v>0.874485596707819</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="R50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="4">
+        <f>N51*((O37+O31)+$C$1*(O38+O39))</f>
+        <v>6.5953360768175591</v>
+      </c>
+      <c r="P51" s="15">
+        <f t="shared" si="7"/>
+        <v>0.82441700960219488</v>
+      </c>
+      <c r="Q51">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="Q11" s="5">
-        <f>L11/$L$4</f>
-        <v>0.5</v>
-      </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="16">
-        <f>R4+R8</f>
-        <v>6.2333333333333334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <f t="shared" si="1"/>
-        <v>0.375</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="2"/>
-        <v>0.55555555555555547</v>
-      </c>
-      <c r="N12" s="4">
-        <f>M12*(N6+N8)</f>
-        <v>1.1111111111111109</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="3"/>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="Q12" s="5">
-        <f>L12/$L$4</f>
-        <v>0.3</v>
-      </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="16">
-        <f>R4+R7</f>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="11">
-        <f>M13*(N4+N5)</f>
-        <v>2</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="Q13" s="5">
-        <f>L13/$L$4</f>
-        <v>0.2</v>
-      </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="16">
-        <f>R4+R5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N14" s="4">
-        <f>M14*(N5+N4)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="Q14" s="5">
-        <f>L14/$L$5</f>
-        <v>1</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="16">
-        <f>R5+R4</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="11">
-        <f>M15*(N5+N7)</f>
-        <v>2</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="Q15" s="5">
-        <f>L15/$L$5</f>
-        <v>1</v>
-      </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="16">
-        <f>R5+R7</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="23">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="M16" s="4">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N16" s="4">
-        <f>M16*(N5+N8)</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" si="3"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="16">
-        <f>R5+R8</f>
-        <v>4.2333333333333334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="23">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="M17" s="4">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N17" s="4">
-        <f>M17*(N5+N6)</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="3"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="16">
-        <f>R5+R6</f>
-        <v>4.2523809523809524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <f t="shared" si="1"/>
-        <v>0.375</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="11">
-        <f>M18*(N7+N4)</f>
-        <v>2</v>
-      </c>
-      <c r="O18" s="4">
-        <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="Q18" s="5">
-        <f>L18/$L$7</f>
-        <v>1</v>
-      </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="20">
-        <f>R7+R4</f>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N19" s="4">
-        <f>M19*(N7+N6)</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="Q19" s="5">
-        <f>L19/$L$7</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R19" s="7"/>
-      <c r="S19" s="20">
-        <f>R7+R6</f>
-        <v>4.5523809523809522</v>
-      </c>
-      <c r="T19" s="18"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M20" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="11">
-        <f>M20*(N7+N8)</f>
-        <v>2</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="Q20" s="5">
-        <f>L20/$L$7</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="16">
-        <f>R7+R8</f>
-        <v>4.5333333333333332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M21" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="11">
-        <f>M21*(N7+N6)</f>
-        <v>2</v>
-      </c>
-      <c r="O21" s="15">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="Q21" s="5">
-        <f>L21/$L$8</f>
-        <v>0.5</v>
-      </c>
-      <c r="R21" s="7"/>
-      <c r="S21" s="16">
-        <f>R8+R6</f>
-        <v>8.4857142857142858</v>
-      </c>
-      <c r="T21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M22" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="4">
-        <f>M22*((N13+N15)+$C$1*(N12))</f>
-        <v>4.3703703703703702</v>
-      </c>
-      <c r="O22" s="15">
-        <f t="shared" si="3"/>
-        <v>1.0925925925925926</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="Q22" s="5">
-        <f>L22/$L$13</f>
-        <v>1</v>
-      </c>
-      <c r="R22" s="7"/>
-      <c r="S22" s="16">
-        <f>R4+R5+R7</f>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N23" s="4">
-        <f>M23*((N13+N14)+$C$1*(N9))</f>
-        <v>0.93004115226337447</v>
-      </c>
-      <c r="O23" s="15">
-        <f t="shared" si="3"/>
-        <v>0.23251028806584362</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="Q23" s="5">
-        <f>L23/$L$13</f>
-        <v>1</v>
-      </c>
-      <c r="R23" s="7"/>
-      <c r="S23" s="16">
-        <f>R4+R5+R4</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="23">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N24" s="4">
-        <f>M24*((N13+N16)+$C$1*(N11))</f>
-        <v>0.2935528120713306</v>
-      </c>
-      <c r="O24" s="15">
-        <f t="shared" si="3"/>
-        <v>3.6694101508916326E-2</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="20">
-        <f>R4+R5+R8</f>
-        <v>6.2333333333333334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="23">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="M25" s="4">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N25" s="4">
-        <f>M25*((N13+N17)+$C$1*(N10))</f>
-        <v>0.2935528120713306</v>
-      </c>
-      <c r="O25" s="15">
-        <f t="shared" si="3"/>
-        <v>3.6694101508916326E-2</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="16">
-        <f>R4+R5+R6</f>
-        <v>6.2523809523809524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N26" s="4">
-        <f>M26*((N12+N18)+$C$1*(N9))</f>
-        <v>1.0781893004115224</v>
-      </c>
-      <c r="O26" s="15">
-        <f t="shared" si="3"/>
-        <v>0.2695473251028806</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="Q26" s="5">
-        <f>L26/$L$12</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R26" s="7"/>
-      <c r="S26" s="20">
-        <f>R4+R7+R4</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M27" s="4">
-        <f t="shared" si="2"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="N27" s="4">
-        <f>M27*((N12+N20)+$C$1*(N11))</f>
-        <v>0.78463648834019195</v>
-      </c>
-      <c r="O27" s="15">
-        <f t="shared" si="3"/>
-        <v>0.19615912208504799</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="Q27" s="5">
-        <f>L27/$L$12</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R27" s="7"/>
-      <c r="S27" s="20">
-        <f>R5+R7+R8</f>
-        <v>4.5333333333333332</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M28" s="4">
-        <f t="shared" si="2"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="N28" s="4">
-        <f>M28*((N12+N19)+$C$1*(N10))</f>
-        <v>0.63648834019204381</v>
-      </c>
-      <c r="O28" s="15">
-        <f t="shared" si="3"/>
-        <v>0.15912208504801095</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="Q28" s="5">
-        <f>L28/$L$12</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R28" s="7"/>
-      <c r="S28" s="20">
-        <f>R4+R7+R6</f>
-        <v>6.5523809523809522</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M29" s="4">
-        <f t="shared" si="2"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="N29" s="4">
-        <f>M29*((N9+N11)+$C$1*(N11))</f>
-        <v>0.45541838134430729</v>
-      </c>
-      <c r="O29" s="15">
-        <f t="shared" si="3"/>
-        <v>0.11385459533607682</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="Q29" s="5">
-        <f>L29/L9</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R29" s="7"/>
-      <c r="S29" s="16">
-        <f>R4+R4+R8</f>
-        <v>8.2333333333333343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M30" s="4">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N30" s="4">
-        <f>M30*((N9+N10)+$C$1*(N10))</f>
-        <v>0.22770919067215364</v>
-      </c>
-      <c r="O30" s="15">
-        <f t="shared" si="3"/>
-        <v>5.6927297668038411E-2</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="Q30" s="5">
-        <f>L30/L10</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="R30" s="7"/>
-      <c r="S30" s="20">
-        <f>R4+R4+R6</f>
-        <v>8.2523809523809533</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" s="23">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="M31" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N31" s="4">
-        <f>M31*((N11+N21)+$C$1*(N10))</f>
-        <v>3.6790123456790127</v>
-      </c>
-      <c r="O31" s="15">
-        <f t="shared" si="3"/>
-        <v>0.45987654320987659</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="20">
-        <f>R4+R8+R6</f>
-        <v>10.485714285714286</v>
-      </c>
-      <c r="T31" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="M32" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N32" s="4">
-        <f>M32*((N15+N18)+$C$1*(N14))</f>
-        <v>4.2222222222222223</v>
-      </c>
-      <c r="O32" s="15">
-        <f t="shared" si="3"/>
-        <v>1.0555555555555556</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="Q32" s="5">
-        <f>L32/$L$15</f>
-        <v>1</v>
-      </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="16">
-        <f>R5+R7+R4</f>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" s="23">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="M33" s="4">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N33" s="4">
-        <f>M33*((N15+N20)+$C$1*(N16))</f>
-        <v>1.3580246913580247</v>
-      </c>
-      <c r="O33" s="15">
-        <f t="shared" si="3"/>
-        <v>0.16975308641975309</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="16">
-        <f>R5+R7+R8</f>
-        <v>4.5333333333333332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" s="23">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="M34" s="4">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N34" s="4">
-        <f>M34*((N15+N19)+$C$1*(N17))</f>
-        <v>1.1358024691358022</v>
-      </c>
-      <c r="O34" s="15">
-        <f t="shared" si="3"/>
-        <v>0.14197530864197527</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="16">
-        <f>R5+R7+R6</f>
-        <v>4.5523809523809522</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35" s="23">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="M35" s="4">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N35" s="4">
-        <f>M35*((N14+N11)+$C$1*(N16))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O35" s="15">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="16">
-        <f>R5+R4+R8</f>
-        <v>6.2333333333333334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ref="G36:G54" si="5">SUM(H36:K36)</f>
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" s="23">
-        <f t="shared" ref="L36:L54" si="6">G36/8</f>
-        <v>0.125</v>
-      </c>
-      <c r="M36" s="4">
-        <f t="shared" ref="M36:M54" si="7">(H36+$C$1*I36+($C$1^2)*J36+($C$1^3)*K36)/G36</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N36" s="4">
-        <f>M36*((N14+N10)+$C$1*(N17))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O36" s="15">
-        <f t="shared" ref="O36:O54" si="8">N36*L36</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="16">
-        <f>R5+R4+R6</f>
-        <v>6.2523809523809524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="M37" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N37" s="4">
-        <f>M37*((N18+N11)+$C$1*(N20))</f>
-        <v>3.925925925925926</v>
-      </c>
-      <c r="O37" s="15">
-        <f t="shared" si="8"/>
-        <v>0.98148148148148151</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Q37" s="5">
-        <f>L37/$L$18</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R37" s="6"/>
-      <c r="S37" s="16">
-        <f>R7+R4+R8</f>
-        <v>6.5333333333333332</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="M38" s="4">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N38" s="4">
-        <f>M38*((N18+N10)+$C$1*(N19))</f>
-        <v>2.4691358024691361</v>
-      </c>
-      <c r="O38" s="15">
-        <f t="shared" si="8"/>
-        <v>0.61728395061728403</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="Q38" s="5">
-        <f>L38/$L$18</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R38" s="6"/>
-      <c r="S38" s="16">
-        <f>R7+R4+R6</f>
-        <v>6.5523809523809522</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39" s="23">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M39" s="4">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N39" s="4">
-        <f>M39*((N20+N21)+$C$1*(N19))</f>
-        <v>1.4814814814814814</v>
-      </c>
-      <c r="O39" s="15">
-        <f t="shared" si="8"/>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="16">
-        <f>R7+R8+R6</f>
-        <v>8.7857142857142847</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="M40" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N40" s="4">
-        <f>M40*((N22+N32)+$C$1*(N26+N23))</f>
-        <v>9.2620027434842243</v>
-      </c>
-      <c r="O40" s="15">
-        <f t="shared" si="8"/>
-        <v>2.3155006858710561</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Q40" s="5">
-        <f>L40/$L$22</f>
-        <v>1</v>
-      </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="16">
-        <f>R4+R5+R7+R4</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41" s="23">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M41" s="4">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N41" s="4">
-        <f>M41*((N22+N33)+$C$1*(N27+N24))</f>
-        <v>2.0292638317329672</v>
-      </c>
-      <c r="O41" s="15">
-        <f t="shared" si="8"/>
-        <v>0.2536579789666209</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="16">
-        <f>R4+R5+R7+R8</f>
-        <v>6.5333333333333332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42" s="23">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M42" s="4">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N42" s="4">
-        <f>M42*((N22+N34)+$C$1*(N28+N25))</f>
-        <v>1.9387288523090991</v>
-      </c>
-      <c r="O42" s="15">
-        <f t="shared" si="8"/>
-        <v>0.24234110653863739</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="16">
-        <f>R4+R5+R7+R6</f>
-        <v>6.5523809523809522</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" s="23">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M43" s="4">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N43" s="4">
-        <f>M43*((N23+N35)+$C$1*(N29+N24))</f>
-        <v>0.61545496113397347</v>
-      </c>
-      <c r="O43" s="15">
-        <f t="shared" si="8"/>
-        <v>7.6931870141746683E-2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="16">
-        <f>R4+R5+R4+R8</f>
-        <v>8.2333333333333343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44" s="23">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M44" s="4">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N44" s="4">
-        <f>M44*((N23+N36)+$C$1*(N25+N30))</f>
-        <v>0.59015393994817855</v>
-      </c>
-      <c r="O44" s="15">
-        <f t="shared" si="8"/>
-        <v>7.3769242493522319E-2</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="16">
-        <f>R4+R5+R4+R6</f>
-        <v>8.2523809523809533</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45" s="23">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M45" s="4">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N45" s="4">
-        <f>M45*((N26+N37)+$C$1*(N29+N27))</f>
-        <v>1.8058222831885384</v>
-      </c>
-      <c r="O45" s="15">
-        <f t="shared" si="8"/>
-        <v>0.2257277853985673</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="16">
-        <f>R4+R7+R4+R8</f>
-        <v>8.5333333333333332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46" s="23">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M46" s="4">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N46" s="4">
-        <f>M46*((N27+N38)+$C$1*(N28+N30))</f>
-        <v>1.1806127114769089</v>
-      </c>
-      <c r="O46" s="15">
-        <f t="shared" si="8"/>
-        <v>0.14757658893461362</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="16">
-        <f>R4+R7+R4+R6</f>
-        <v>8.5523809523809522</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47" s="23">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M47" s="4">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N47" s="4">
-        <f>M47*((N27+N39)+$C$1*(N28+N31))</f>
-        <v>1.2348727328151194</v>
-      </c>
-      <c r="O47" s="15">
-        <f t="shared" si="8"/>
-        <v>0.15435909160188993</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="17">
-        <f>R4+R7+R8+R6</f>
-        <v>10.785714285714285</v>
-      </c>
-      <c r="T47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" s="23">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M48" s="4">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N48" s="4">
-        <f>M48*((N29+N31)+$C$1*(N31+N30))</f>
-        <v>1.8122237463801252</v>
-      </c>
-      <c r="O48" s="15">
-        <f t="shared" si="8"/>
-        <v>0.22652796829751565</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="20">
-        <f>R4+R4+R8+R6</f>
-        <v>12.485714285714288</v>
-      </c>
-      <c r="T48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49">
-        <v>46</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49" s="23">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M49" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N49" s="4">
-        <f>M49*((N32+N37)+$C$1*(N33+N34))</f>
-        <v>8.9794238683127574</v>
-      </c>
-      <c r="O49" s="15">
-        <f t="shared" si="8"/>
-        <v>1.1224279835390947</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="16">
-        <f>R5+R7+R4+R8</f>
-        <v>6.5333333333333332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>2</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50" s="23">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M50" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N50" s="4">
-        <f>M50*((N32+N38)+$C$1*(N34+N36))</f>
-        <v>7.2921810699588478</v>
-      </c>
-      <c r="O50" s="15">
-        <f t="shared" si="8"/>
-        <v>0.91152263374485598</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="16">
-        <f>R5+R7+R4+R6</f>
-        <v>6.5523809523809522</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="A51">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51" s="23">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M51" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N51" s="4">
-        <f>M51*((N37+N31)+$C$1*(N38+N39))</f>
-        <v>8.9218106995884767</v>
-      </c>
-      <c r="O51" s="15">
-        <f t="shared" si="8"/>
-        <v>1.1152263374485596</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="21">
-        <f>R7+R4+R8+R6</f>
-        <v>10.785714285714285</v>
-      </c>
-      <c r="T51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="R51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>49</v>
       </c>
@@ -17031,14 +17080,14 @@
         <v>4</v>
       </c>
       <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -17046,34 +17095,34 @@
       <c r="K52">
         <v>0</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N52" s="4">
         <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M52" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N52" s="4">
-        <f>M52*((N40+N49)+$C$1*(N41+N45+N43))</f>
-        <v>19.724940303815476</v>
-      </c>
-      <c r="O52" s="15">
-        <f t="shared" si="8"/>
-        <v>2.4656175379769345</v>
-      </c>
-      <c r="P52">
-        <f t="shared" ref="P52:P53" si="9">RANK(O52,$O$9:$O$54)</f>
-        <v>1</v>
-      </c>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="16">
-        <f>R4+R5+R7+R4+R8</f>
-        <v>8.5333333333333332</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="O52" s="4">
+        <f>N52*((O40+O49)+$C$1*(O41+O45+O43))</f>
+        <v>19.796169283137729</v>
+      </c>
+      <c r="P52" s="15">
+        <f>O52*M52</f>
+        <v>2.4745211603922161</v>
+      </c>
+      <c r="Q52">
+        <f>RANK(P52,$P$9:$P$54)</f>
+        <v>1</v>
+      </c>
+      <c r="R52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>50</v>
       </c>
@@ -17093,14 +17142,14 @@
         <v>2</v>
       </c>
       <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -17108,34 +17157,34 @@
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="L53" s="23">
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N53" s="4">
         <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M53" s="4">
+        <v>1</v>
+      </c>
+      <c r="O53" s="4">
+        <f>N53*((O40+O50)+$C$1*(O46+O42+O44))</f>
+        <v>17.760707209266879</v>
+      </c>
+      <c r="P53" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N53" s="4">
-        <f>M53*((N40+N50)+$C$1*(N46+N42+N44))</f>
-        <v>17.7906823146878</v>
-      </c>
-      <c r="O53" s="15">
-        <f t="shared" si="8"/>
-        <v>2.223835289335975</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="16">
-        <f>R4+R5+R7+R4+R6</f>
-        <v>8.5523809523809522</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+        <v>2.2200884011583599</v>
+      </c>
+      <c r="Q53">
+        <f>RANK(P53,$P$9:$P$54)</f>
+        <v>3</v>
+      </c>
+      <c r="R53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>51</v>
       </c>
@@ -17155,14 +17204,14 @@
         <v>2</v>
       </c>
       <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -17170,57 +17219,54 @@
       <c r="K54">
         <v>0</v>
       </c>
-      <c r="L54" s="23">
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" s="20">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="N54" s="4">
         <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="M54" s="4">
+        <v>1</v>
+      </c>
+      <c r="O54" s="4">
+        <f>N54*((O45+O51)+$C$1*(O46+O48+O47))</f>
+        <v>11.396839912614947</v>
+      </c>
+      <c r="P54" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N54" s="4">
-        <f>M54*((N45+N51)+$C$1*(N46+N48+N47))</f>
-        <v>12.136869379667733</v>
-      </c>
-      <c r="O54" s="15">
-        <f t="shared" si="8"/>
-        <v>1.5171086724584666</v>
-      </c>
-      <c r="P54">
-        <f>RANK(O54,$O$9:$O$54)</f>
-        <v>4</v>
-      </c>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="17">
-        <f>R4+R7+R4+R8+R6</f>
-        <v>12.785714285714285</v>
-      </c>
-      <c r="T54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>1.4246049890768684</v>
+      </c>
+      <c r="Q54">
+        <f>RANK(P54,$P$9:$P$54)</f>
+        <v>4</v>
+      </c>
+      <c r="R54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:18">
       <c r="B59" s="14"/>
       <c r="E59" s="14"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:18">
       <c r="B60" s="14"/>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:18">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:18">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:18">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:18">
       <c r="B64" s="14"/>
     </row>
     <row r="65" spans="2:4">
